--- a/papers_processed/Paper29_data.xlsx
+++ b/papers_processed/Paper29_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\extracted data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C17720-68F7-4C1F-B96D-69CB84F963A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BFCBBA-93AE-4F28-8E21-BDD617CEAB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AD10B97-FBEA-204A-AFDE-B54208B2EEF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AD10B97-FBEA-204A-AFDE-B54208B2EEF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>selection_type</t>
-  </si>
-  <si>
-    <t>selection_value</t>
-  </si>
-  <si>
-    <t>farming_practice_used</t>
-  </si>
-  <si>
     <t>farming_practice_compared</t>
   </si>
   <si>
@@ -103,6 +94,15 @@
   </si>
   <si>
     <t>&lt;10</t>
+  </si>
+  <si>
+    <t>farming practice</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selection type</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,65 +532,65 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="5">
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6">
         <v>5.5E-2</v>
@@ -599,10 +599,10 @@
         <v>4</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1">
         <v>4</v>
@@ -610,25 +610,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -637,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -648,25 +648,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="H5" s="6">
         <v>5.8999999999999997E-2</v>
@@ -675,10 +675,10 @@
         <v>6</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L5" s="1">
         <v>6</v>
@@ -686,25 +686,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5">
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>6</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1">
         <v>6</v>

--- a/papers_processed/Paper29_data.xlsx
+++ b/papers_processed/Paper29_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BFCBBA-93AE-4F28-8E21-BDD617CEAB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9760E-3955-4BF1-8EFD-E1E0BCAA0609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AD10B97-FBEA-204A-AFDE-B54208B2EEF8}"/>
+    <workbookView xWindow="31920" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{9AD10B97-FBEA-204A-AFDE-B54208B2EEF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>doi</t>
   </si>
@@ -36,9 +36,6 @@
     <t>results_detailed</t>
   </si>
   <si>
-    <t>results_actual_percentage</t>
-  </si>
-  <si>
     <t>crop_type</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>carbon_footprint_information_page</t>
   </si>
   <si>
-    <t>Nitrification Inhibitors (NI)</t>
-  </si>
-  <si>
     <t>Conventional N Fertilizer</t>
   </si>
   <si>
@@ -75,34 +69,25 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>&gt;8.0</t>
-  </si>
-  <si>
-    <t>yearly precipitation</t>
-  </si>
-  <si>
     <t>yearly temperature</t>
   </si>
   <si>
-    <t>soil ph</t>
-  </si>
-  <si>
-    <t>&lt;800</t>
-  </si>
-  <si>
     <t>10-20</t>
   </si>
   <si>
-    <t>&lt;10</t>
-  </si>
-  <si>
-    <t>farming practice</t>
-  </si>
-  <si>
     <t>selection</t>
   </si>
   <si>
-    <t>selection type</t>
+    <t>farming_practice</t>
+  </si>
+  <si>
+    <t>selection_type</t>
+  </si>
+  <si>
+    <t>results_actual</t>
+  </si>
+  <si>
+    <t>"+5.5"</t>
   </si>
 </sst>
 </file>
@@ -507,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA70FD0-6429-E446-88D2-9E6DE5AEF49E}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,225 +515,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>4</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>4</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>6</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
